--- a/reports.xlsx
+++ b/reports.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Cse15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="attendance" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Roll Number</t>
   </si>
@@ -23,25 +23,34 @@
     <t>Name</t>
   </si>
   <si>
-    <t>29_04_18</t>
-  </si>
-  <si>
-    <t>B17104</t>
-  </si>
-  <si>
-    <t>baba</t>
+    <t>19_05_18</t>
+  </si>
+  <si>
+    <t>24_05_18</t>
+  </si>
+  <si>
+    <t>B17085</t>
+  </si>
+  <si>
+    <t>yoy</t>
   </si>
   <si>
     <t>B17110</t>
   </si>
   <si>
-    <t>Varun</t>
-  </si>
-  <si>
-    <t>B17138</t>
-  </si>
-  <si>
-    <t>Rishi</t>
+    <t>Varun Singh</t>
+  </si>
+  <si>
+    <t>b17056</t>
+  </si>
+  <si>
+    <t>mea</t>
+  </si>
+  <si>
+    <t>b17099</t>
+  </si>
+  <si>
+    <t>me</t>
   </si>
 </sst>
 </file>
@@ -377,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +394,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,33 +404,47 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3"/>
-    <row r="3" spans="1:3">
+    <row r="2" spans="1:4"/>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/reports.xlsx
+++ b/reports.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Roll Number</t>
   </si>
@@ -26,31 +26,16 @@
     <t>19_05_18</t>
   </si>
   <si>
-    <t>24_05_18</t>
-  </si>
-  <si>
-    <t>B17085</t>
-  </si>
-  <si>
-    <t>yoy</t>
-  </si>
-  <si>
     <t>B17110</t>
   </si>
   <si>
     <t>Varun Singh</t>
   </si>
   <si>
-    <t>b17056</t>
-  </si>
-  <si>
-    <t>mea</t>
-  </si>
-  <si>
-    <t>b17099</t>
-  </si>
-  <si>
-    <t>me</t>
+    <t>B17138</t>
+  </si>
+  <si>
+    <t>Rishi Sharma</t>
   </si>
 </sst>
 </file>
@@ -386,7 +371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,47 +389,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4"/>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="C4" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/reports.xlsx
+++ b/reports.xlsx
@@ -4,18 +4,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="attendance" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">attendance!$C$5</definedName>
+  </definedNames>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Roll Number</t>
   </si>
@@ -23,7 +25,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>19_05_18</t>
+    <t>20_05_18</t>
+  </si>
+  <si>
+    <t>B17102</t>
+  </si>
+  <si>
+    <t>SPST</t>
   </si>
   <si>
     <t>B17110</t>
@@ -43,13 +51,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,16 +92,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -367,52 +410,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="2" width="8.529999999999999"/>
+    <col customWidth="1" max="2" min="2" style="2" width="9.720000000000001"/>
+    <col customWidth="1" max="1025" min="3" style="2" width="8.529999999999999"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row customHeight="1" ht="15" r="1" s="3" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="2" spans="1:3"/>
+    <row customHeight="1" ht="13.8" r="3" s="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row customHeight="1" ht="13.8" r="4" s="3" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="3" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>